--- a/History/Video_generation_history.xlsx
+++ b/History/Video_generation_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,293 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-02-10 23:46:08</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>What if Lemuria Returned? The Lost World Reborn</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ChronoShift_Chronicles</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Okay, here's a 60-second YouTube Short script designed to go viral, based on the "What if Lemuria Returned? The Lost World Reborn" prompt. It focuses on creating a continuous, suspenseful narrative, and is structured for optimal engagement.
+**YouTube Short Script: What if Lemuria Returned? The Lost World Reborn**
+Imagine… shimmering turquoise waters suddenly rise, revealing a lost continent – Lemuria. The ocean floor cracks, ancient temples pierce the surface, glistening in the sun, a forgotten civilization reborn. What if it's not just land, but a surge of psychic energy sweeping across the globe? A wave of heightened intuition, dreams filled with forgotten languages, a collective remembering begins. Imagine children suddenly drawing strange symbols, humming melodies that echo from millennia ago, a dormant power awakening within them. The government denies it, scientists scramble for answers, but the whispers are undeniable: Lemuria is calling. But this return comes with a price, as the very fabric of reality seems to ripple and distort. The weather becomes erratic, as volcanoes erupt that have been dormant for centuries, ancient creatures stir in the depths. Imagine the technology we know begins to falter, replaced by something… organic, bioluminescent, responding to thought. The world shifts, and the barrier between dimensions thins, revealing glimpses of ethereal beings walking among us. As the lines blur, they realize we aren't just witnessing a return, but an integration, a merging of worlds unlike anything we've ever known. This is Lemuria's final form: not just a place, but a state of consciousness, a rebirth of the soul and mind. Now imagine: you look in the mirror, and see not yourself, but a glimmer of something ancient, something…Lemurian. What do you do? The past is now present and in your hands.
+</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['What if shimmering turquoise waters rise, revealing Lemuria? A lost continent reborn!', 'The ocean floor cracks, temples pierce the sun, an ancient civilization glistens. Subscribe for more!', "But it's more than land, a surge of psychic energy sweeps the globe... intuition heightened.", 'Imagine children drawing strange symbols, humming melodies...a dormant power awakening within them.', 'Governments deny, scientists scramble, but whispers grow louder: Lemuria is calling. Are you listening?', 'This return has a price: reality distorts, weather becomes erratic, volcanoes erupt.', 'Our technology falters, replaced by something organic, bioluminescent, responding to thought.', 'The world shifts, dimensions thin, glimpses of ethereal beings walk among us. The truth unfolds.', "It's not just a return, but an integration, worlds merging, a rebirth of mind and soul.", 'Now, you look in the mirror... a glimmer of something ancient. Lemurian. What do you do? The past is present!']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['Panoramic, turquoise ocean rising, revealing a massive, jade-colored landmass, shimmering light, vibrant, epic scale, art nouveau.', 'Close-up, sun-drenched, colossal ancient temples emerging, gold reflecting light, awe-inspiring, hyperrealistic, cinematic.', 'Global view, psychic energy waves radiating, blue light, electric charge, mystical, ethereal, high contrast, abstract art.', 'Medium shot, child drawing glowing symbols in sand, serene, intuitive, ancient, soft focus, pastel colors.', 'Wide shot, scientists in lab coats looking bewildered, chaotic data streams, urgent, skeptical, dark, dramatic lighting.', 'Close-up, volcanic eruption, vibrant orange lava flowing into the ocean, destructive beauty, dramatic, dark, dynamic.', 'Medium shot, bioluminescent technology pulsating, organic forms integrating, ethereal, harmonious, vibrant, glowing.', 'Ethereal beings walking through a forest, glowing, translucent, peaceful, mystical, soft focus, dreamlike.', 'Abstract, swirling colors merging together, representing integration, harmonious, vibrant, psychedelic, flowing.', 'Close-up, person looking in mirror, faint Lemurian glow in their eyes, questioning, ancient, mysterious, dark tones.', 'Wide shot, turquoise ocean rising, revealing a massive, jade-colored landmass, shimmering light, vibrant, epic scale, art nouveau.', 'Extreme close-up, sun-drenched, colossal ancient temples emerging, gold reflecting light, awe-inspiring, hyperrealistic, cinematic.', "Close-up, psychic energy waves radiating from a person's forehead, intense blue light, mystical, ethereal, high contrast, abstract art.", 'Close-up, child humming a melody, eyes closed, serene, intuitive, ancient, soft focus, pastel colors.', 'Close-up, government official denying claims at a press conference, stern, skeptical, dark, dramatic lighting.', 'Extreme close-up, volcano erupting, vibrant orange lava flowing into the ocean, destructive beauty, dramatic, dark, dynamic.', 'Close-up, bioluminescent technology pulsating, organic forms integrating with human skin, ethereal, harmonious, vibrant, glowing.', 'Medium shot, Ethereal beings walking through a forest, glowing, translucent interacting with humans, peaceful, mystical, soft focus, dreamlike.', 'Abstract, swirling colors merging together, representing integration of consciousness, harmonious, vibrant, psychedelic, flowing.', 'Close-up, person looking in mirror, full Lemurian transformation reflected, confident, ancient, powerful, gold and blue tones.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-02-11 00:31:27</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>What If Shadows Held the Key to the Universe?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ChronoShift_Chronicles</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What if shadows weren't just absences of light, but doorways, shimmering portals to something far greater, imagine every shadow you see hiding a secret universe, mirroring our own but governed by different laws, immediately you feel a chill down your spine as the sun dips below the horizon, stretching your own shadow into an elongated, distorted figure, what if that distorted shape is a glimpse, a leakage from that other dimension trying to manifest, and imagine scientists discovering anomalies within shadows: slight temperature drops, unexplainable energy fluctuations, the shadows are whispering secrets they can't understand, now picture them using advanced technology to amplify these anomalies, building a device that lets them peer directly into the shadow dimension, and what they see isn't emptiness, but a vibrant, teeming ecosystem of beings made of pure darkness, feeding off our light, suddenly, one scientist makes eye contact with a shadowy figure, and the figure smiles a chilling, knowing grin that makes your blood run cold, but that's not all, the device malfunctions, creating a ripple effect, causing shadows in our world to become more pronounced, more aggressive, and now everyday objects start casting shadows that don't match their shapes, they seem alive, crawling toward the light, they start to communicate, projecting images of the shadow universe onto our walls, showing its complex infrastructure, that's when we learn the truth: our universe and the shadow universe are intertwined, they need each other to exist, like a delicate dance of light and dark, if one fails, the other collapses, the future of everything now depends on understanding and mastering the language of shadows before they consume everything.
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>["What if shadows weren't just darkness, but doorways? Shimmering portals to another universe entirely? Get ready, this will change how you see everything. Subscribe for more!", "Imagine every shadow hides a secret, a world mirroring ours, but ruled by different laws. Feel that chill? The sun's setting... is your shadow stretching?", "What if that distorted shadow, elongated and strange, is a leak? A glimpse of *that* dimension trying to break through? Look closer… it's unsettling.", "Scientists are finding anomalies: temperature drops, energy spikes... whispers in the dark. They can't understand what the shadows are trying to say.", "They're building a device, amplifying these strange signals, trying to peer into the shadow dimension. What they see isn't emptiness, but life.", 'A teeming ecosystem, beings of pure darkness feeding off our light. Then, a scientist makes eye contact… a shadowy figure smiles. A chilling smile.', "The device malfunctions! Shadows become aggressive, objects cast shapes that don't match. They're alive, crawling towards the light, shifting.", 'Now, the shadows communicate, projecting images of their universe onto our walls. Intricate infrastructure, alien landscapes… a desperate plea?', 'Our universe and theirs are intertwined. They need each other to exist; a dance of light and dark. If one falls, both collapse! Can you feel it?', 'The future depends on understanding the language of shadows. Before they consume everything... before *we* are consumed. Are you ready to learn?']</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['Extreme close-up of a long, distorted shadow on a wall, with faint, swirling colors visible within it. Dark, ominous, mysterious. High contrast, cinematic lighting.', 'Wide shot of a child standing in a brightly lit room, but their shadow stretches impossibly long and thin, reaching towards a dark corner. Eerie, unsettling. Gloomy color palette, sharp focus.', 'Low-angle shot of a setting sun casting long, distorted shadows of trees across a field. The shadows seem to writhe and twist unnaturally. Ominous, foreboding. Dark orange and purple hues, shallow depth of field.', "Close-up of a person's face, eyes wide with fear, as they stare at their own distorted shadow on the wall. Terror, dread. Muted colors, dramatic lighting.", 'Overhead shot of a high-tech lab, scientists huddled around monitors displaying strange energy readings emanating from a shadow. Focused, intense. Cool color scheme, sharp focus.', "Close-up of a scientist's hand trembling as they hold a device emitting a beam of light towards a dark corner, the beam visibly distorting as it enters the shadow. Anxious, apprehensive. Dark setting, bright beam.", 'Abstract image of a vibrant ecosystem of shadowy creatures within a dark dimension, pulsating with dark energy. Alien, otherworldly. Deep blues and purples, soft glow.', "Extreme close-up of a shadowy figure's face, a chilling, knowing grin spreading across its features. Malevolent, terrifying. High contrast, harsh lighting.", 'Fast-paced montage of shadows becoming increasingly aggressive, distorting and writhing on walls and floors. Chaotic, frenetic. High contrast, desaturated colors.', "Time-lapse of everyday objects casting shadows that don't match their shapes, the shadows appearing to move independently. Surreal, unsettling. Muted tones, slow motion.", 'Close-up of a shadow crawling across a floor towards a beam of light, its form shifting and changing. Menacing, predatory. Dark shadows, bright light.', 'Abstract image of shadows projecting images of a strange, alien infrastructure onto a wall. Complex, intricate. Dark setting, vibrant projections.', 'Wide shot of a city skyline being consumed by encroaching shadows, the shadows forming monstrous shapes. Apocalyptic, terrifying. Dark and stormy color palette.', 'Close-up of a scientist reaching out to touch a projection of the shadow universe, their face filled with a mix of fear and fascination. Intrigued, apprehensive. Soft lighting, shallow depth of field.', 'Abstract image of two universes intertwined, one made of light and the other of darkness, swirling together in a delicate dance. Balanced, harmonious. Contrasting colors, dynamic movement.', 'Close-up of a hand reaching out to grasp another hand made of pure shadow, a connection forming between the two. Hopeful, desperate. Muted colors, soft focus.', 'Wide shot of scientists working frantically to understand the language of shadows, surrounded by monitors displaying complex equations and strange symbols. Intense, determined. Cool color scheme, sharp focus.', 'Abstract image of a shadow consuming everything, darkness spreading across the screen. Total annihilation. Dark, ominous. Black and grey hues, blurred edges.', 'Extreme close-up of a single eye reflecting the image of a shadow universe, a mix of fear and understanding in its depths. Realization, acceptance. Soft lighting, sharp focus.', 'Final shot: the distorted shadow from the beginning, now even more pronounced, with a single, chilling grin visible within it. Ominous, unsettling. High contrast, cinematic lighting.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-02-11 11:42:59</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Why 95% Fail (And How to Be the 5%)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "You are being programmed to fail: Why are 95% stuck, and how can you join the 5% who truly thrive?",
+  "The truth is, most of us are born into a system designed for conformity, not extraordinary success.",
+  "Have you ever stopped to question why so many people are trapped in cycles of debt, dissatisfaction, and unfulfilled potential?",
+  "This video will expose the hidden forces that keep you from reaching your full potential, and most importantly, it will provide a roadmap to escape and claim the life you truly deserve.",
+  "The 95% are failing, not because they lack potential, but because they're playing by rules rigged against them.",
+  "Let's dive in and uncover the secrets to becoming part of the 5% who break free!",
+  "Consider the conventional path: go to school, get a job, work for 40 years, and retire, if you're lucky, on a fraction of what you used to earn.",
+  "This model, while seemingly secure, often leads to a life of quiet desperation, where dreams are deferred and potential is left untapped.",
+  "Think about the weight of debt: student loans, mortgages, credit cards, they act like golden handcuffs, binding you to a system that profits from your dependency.",
+  "This constant financial pressure leaves you with little time or energy to pursue your passions, develop new skills, or build true wealth.",
+  "It's a modern form of indentured servitude, where your freedom is traded for the illusion of security.",
+  "True freedom, the kind experienced by the successful 5%, isn't handed out, it's earned by taking control of your finances, your skills, and your time.",
+  "This means building multiple income streams, mastering high-demand skills, and developing an entrepreneurial mindset that sees opportunities where others see obstacles.",
+  "It means investing in yourself and creating assets that generate wealth even while you sleep.",
+  "The 5% understand that financial freedom isn't about getting rich quick, it's about building a sustainable system that provides you with the resources and autonomy to live life on your own terms.",
+  "So, how do you escape this trap and join the ranks of the 5%?",
+  "The first step is to recognize that you have a choice: you can continue down the path of conformity, or you can actively design your own destiny.",
+  "Start by identifying one skill you can develop and monetize: learn coding, digital marketing, writing, or any other skill that's in high demand.",
+  "Then, commit to spending at least one hour each day honing that skill, building your expertise, and seeking out opportunities to apply it.",
+  "Start a side hustle: offer your services as a freelancer, create an online course, or start a small business.",
+  "The key is to generate income outside of your traditional 9-to-5 job, giving you more control over your financial future.",
+  "Invest in your financial literacy: learn about investing, budgeting, and debt management.",
+  "The more you understand how money works, the better equipped you'll be to make smart financial decisions and build wealth over time.",
+  "The journey to joining the 5% won't be easy, there will be setbacks, challenges, and moments of doubt, but the rewards, financial freedom, personal fulfillment, and the ability to live life on your own terms, are well worth the effort.",
+  "Don't let fear hold you back, start building your escape plan today: learn a new skill, launch a side hustle, and take control of your financial future!",
+  "The world needs more people who are willing to challenge the status quo, break free from the system, and create a better future for themselves and others.",
+  "So, are you ready to join the 5% and rewrite your story, or will you remain trapped in the cycle of failure that defines the 95%?",
+  "The choice, and the power, is yours!"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>["Wake up! You're being programmed to fail, and it's not your fault. The system thrives on conformity, burying your potential under mountains of expectations. But you, yes you, can break free, join the 5%, and truly thrive. The chains are invisible, but they are real!", "The truth, a bitter pill to swallow, is that you were born into a rigged game. Most are conditioned to be cogs, not creators, trapped in a cycle of debt and dissatisfaction. Have you ever wondered why so many dreams wither and die? It's time to question everything!", "This isn't about luck; it's about strategy. Hidden forces are actively keeping you from your potential, whispering doubts and fears. But this video? It's your roadmap, a blazing trail to the life you deserve. Embrace the challenge; the journey is worth it!", "The 95% aren't failing because they lack talent; they're failing because they're playing by rules designed for their defeat. The game is rigged, the odds are stacked, but you, my friend, are not ordinary. Refuse to be a statistic!", "Let's dive deep, tear down the facade, and uncover the secrets that separate the thriving 5% from the struggling masses. It's time to break free, rewrite your story, and claim your rightful place among the elite. Are you ready to ascend?!", "Consider the 'conventional' path: school, job, 40 years, and a meager retirement. A gilded cage, a slow descent into quiet desperation. Dreams deferred, potential untapped, a life half-lived. This is not the path to freedom, it's a path to slavery!", 'Debt, that suffocating weight! Student loans, mortgages, credit cards—golden handcuffs binding you to a system that profits from your dependency. Financial pressure crushing your passions, stifling your creativity, stealing your future. Break these chains! Now!', "True freedom, the kind the 5% bask in, isn't a handout; it's earned! It's about seizing control of your finances, mastering in-demand skills, and cultivating an entrepreneurial mindset. See opportunities where others see only obstacles. This is the path to liberation!", "Investing in yourself, creating assets that generate wealth while you sleep, that's the key. The 5% understand: financial freedom isn't a lottery ticket; it's a sustainable system, providing the resources and autonomy to live life on your own terms. Build your empire!", 'So, how do you escape this soul-crushing trap, how do you join the ranks of the 5%? Recognize you have a choice! Continue down the path of conformity, or actively design your own destiny. The power is yours! Choose wisely; choose freedom!']</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>["A stark image of a puppet being controlled by strings labeled 'Society', contrasted against a single, defiant individual breaking free, bathed in golden light.", 'Visual metaphor: A vast field of identical sheep being herded towards a cliff, with a lone wolf standing on a hill, silhouetted against a blood-red sunset.', 'A close-up of a cracked mirror reflecting two faces: one filled with despair, the other with fierce determination, symbolizing the choice to embrace or reject the system.', 'An endless maze made of cubicles, with a single path illuminated by a beacon of hope leading towards an open field under a vibrant, star-filled sky.', 'A hand reaching out from a sea of grasping hands, pulling itself upwards towards a shining city on a hill, representing the struggle for upward mobility.', 'A chessboard where the black pieces represent debt and oppression, and the white pieces are figures strategically moving towards freedom, with a dramatic, dynamic angle.', 'A powerful visual: A single flower blooming in a cracked concrete wasteland, symbolizing the resilience of the human spirit against all odds.', 'An image of a person smashing a television screen broadcasting propaganda, with shards of glass flying outwards, symbolizing the breaking of mental chains.', 'A person climbing a steep mountain, with each step representing a skill learned, and the summit a vision of financial independence under a vibrant rainbow.', 'A dark alley filled with faceless figures, contrasted against a brightly lit doorway leading to a vibrant, bustling marketplace, symbolizing the choice between conformity and opportunity.', 'A swirling vortex of debt papers and bills engulfing a person, with golden handcuffs clamping down, symbolizing financial enslavement. Focus on dramatic lighting and texture.', 'A clock with hands turning backward, symbolizing wasted time, with a single hand pointing forward towards a bright future, emphasizing the need for immediate action.', "A high-contrast image of a person's eyes, filled with both fear and determination, reflecting the internal battle between comfort and the pursuit of freedom.", 'A cracked piggy bank overflowing with money, symbolizing broken financial promises, with a phoenix rising from the ashes, representing financial rebirth.', 'An image of a burning bridge, with a person confidently walking towards a new horizon, symbolizing the shedding of old habits and the embracing of new possibilities.', 'A group of individuals breaking chains in unison, with sunlight streaming through the gaps, creating a powerful symbol of collective liberation.', 'A single seed being planted in fertile ground, with roots growing deep and strong, symbolizing the cultivation of skills and the building of a solid foundation.', 'An entrepreneur standing on a mountaintop, overlooking a vast and prosperous empire, symbolizing the rewards of hard work and dedication.', 'A labyrinth of rules and regulations, with a person finding a hidden shortcut leading to a field of gold, symbolizing the ability to find opportunities where others see obstacles.', 'A lone wolf howling at the moon, symbolizing independence and the courage to stand apart from the crowd. Use cool tones and dramatic lighting.', 'A hand reaching out to grasp a golden key, unlocking a door leading to a sunlit paradise, symbolizing the power of choice and the pursuit of freedom.', 'A split-screen image: one side showing a person trapped in a monotonous routine, the other showing a person living a life of adventure and fulfillment.', 'A cityscape filled with towering skyscrapers representing conformity, with a single, vibrant building standing out, symbolizing the power of individuality.', 'A person building a sandcastle on a beach, representing the fleeting nature of traditional employment, contrasted against a solid, enduring structure representing financial independence.', "A warrior preparing for battle, with a sword inscribed with the words 'Financial Literacy', facing an army of debt and misinformation.", 'A phoenix rising from the ashes of a burnt-out career, symbolizing rebirth and the potential for new beginnings. Use fiery colors and dynamic composition.', 'An image of a person meditating in a serene landscape, surrounded by symbols of abundance and prosperity, visualizing the power of mindset.', 'A single boat sailing against a stormy sea, with a lighthouse guiding the way, symbolizing the resilience needed to overcome challenges on the path to freedom.', 'A tapestry woven with threads of different income streams, creating a vibrant and intricate pattern, symbolizing the power of diversification.', "A hand holding a compass, with the needle pointing towards 'Financial Freedom', guiding the way through a dense forest of obstacles and distractions."]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-02-11 12:31:33</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Why 95% Fail (And How to Be the 1 %)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Look, are you feeling empty, drained, like the fire inside has turned to ash?",
+  "([00:01]) Good!",
+  "([00:02]) That's exactly where champions are forged!",
+  "([00:03]) Because I'm here to tell you, even when you feel nothing, when your soul screams 'stay in bed,' you get the hell up!",
+  "([00:06]) You rise with a fury that even you don't understand yet!",
+  "([00:08]) Think of yourself as a dormant volcano, simmering just beneath the surface, ready to explode!",
+  "([00:10]) Each forced step, each painful rep, each hour wrestled from the void is a hammer blow shaping your destiny!",
+  "([00:13]) Feeling hollow? Good!",
+  "([00:14]) Use that emptiness as fuel!",
+  "([00:15]) Let it drive you to build something magnificent, something undeniable!",
+  "([00:17]) This isn't about talent; it's about relentless, unwavering grit!",
+  "([00:19]) You're not building success; you're *carving* it, with blood, sweat, and sheer freaking willpower!",
+  "([00:22]) This is your time, your moment, your chance to show the world – and yourself – what you're truly made of, so rise now!",
+  "([00:24]) No excuses, no whining, just raw, unadulterated action!",
+  "([00:26]) Ignite your fire now and claim your destiny!"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>["Look, are you feeling empty, drained, like the fire inside has turned to ash? Good! That's exactly where champions are forged! Because I'm here to tell you, even when you feel nothing, when your soul screams 'stay in bed,' you get the hell up! You rise with a fury that even you don't understand yet! Think of yourself as a dormant volcano, simmering just beneath the surface, ready to explode!", "Each forced step, each painful rep, each hour wrestled from the void is a hammer blow shaping your destiny! Feeling hollow? Good! Use that emptiness as fuel! Let it drive you to build something magnificent, something undeniable! This isn't about talent; it's about relentless, unwavering grit! You're not building success; you're carving it, with blood, sweat, and sheer freaking willpower! This is your time, your moment, your chance to show the world – and yourself – what you're truly made of, so rise now! No excuses, no whining, just raw, unadulterated action! Ignite your fire now and claim your destiny!"]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['Close-up of a weary face, eyes filled with ashes turning to embers. Dark, muted colors gradually shifting to vibrant orange.', "A blacksmith's forge where a fiery sword is being hammered into shape, sparks flying everywhere, intense heat radiating outwards. Focus on the raw power and transformation.", 'Figure silhouetted against a dark dawn, forcefully pushing themselves out of bed, driven by an unseen force. Emphasize the struggle and determination.', 'A volcanic landscape, dark and barren, suddenly erupting with molten lava and ash, symbolizing the unleashing of hidden power. Dynamic and explosive imagery.', "Abstract art depicting a person's soul as a dormant volcano, simmering beneath a layer of rock. The first cracks of lava appear, hinting at the impending eruption.", "A determined athlete's face, contorted in pain during a grueling workout, sweat dripping, but their eyes are burning with unwavering resolve. Extreme close-up focusing on the intensity.", "An expansive desert landscape transforming into a lush, thriving oasis due to a single person's relentless efforts. Symbolize turning emptiness into abundance.", 'Architectural rendering of a colossal monument being carved out of a mountainside, with tiny figures working tirelessly, representing the creation of something monumental from nothing.', 'A close-up of hands, calloused and bloody, carving intricate details into a stone sculpture, representing the painstaking effort and sacrifice required for success. Dramatic lighting.', 'Person standing atop a mountain peak at sunrise, arms outstretched, bathed in golden light, radiating confidence and achievement. The world stretches out before them, symbolizing endless possibilities.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-02-11 21:33:02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Disappear for 30 Days &amp; Come Back Unstoppable (The Secret Self-Improvement Challenge)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Wake up! Even when you feel EMPTY!",
+  "0:00 - 0:02 The alarm screams, your soul protests, but you're lying in bed feeling nothing, right?",
+  "0:02 - 0:04 Zero passion, zero drive, just a hollow shell, but you still got to get up!",
+  "0:04 - 0:06 That's the moment! That's the forge where LEGENDS are made!",
+  "0:06 - 0:08 It's not about FEELING it, it's about FORCING it!",
+  "0:08 - 0:10 Summon that inner fire! Even if it's just a tiny spark now, feed it!",
+  "0:10 - 0:12 Each step you drag yourself forward is a hammer blow shaping your DESTINY!",
+  "0:12 - 0:14 You think champions are born feeling amazing every day?",
+  "0:14 - 0:16 NO! They RISE when they feel like NOTHING!",
+  "0:16 - 0:18 This is your crucible! Embrace the heat!",
+  "0:18 - 0:20 Every empty morning conquered is a brick laid on the path to your EMPIRE!",
+  "0:20 - 0:22 Don't wait for motivation, BECOME the motivation!",
+  "0:22 - 0:23 GET UP!",
+  "0:23 - 0:24 PUSH!",
+  "0:24 - 0:25 CONQUER!",
+  "0:25 - 0:26 Ignite your fire now, and claim your destiny!"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>["Wake up! Even when you feel EMPTY! The alarm screams, your soul protests, but you're lying in bed feeling nothing, right? Zero passion, zero drive, just a hollow shell, but you still got to get up! That's the moment! That's the forge where LEGENDS are made! It's not about FEELING it, it's about FORCING it! Summon that inner fire! Even if it's just a tiny spark now, feed it!", "Each step you drag yourself forward is a hammer blow shaping your DESTINY! You think champions are born feeling amazing every day? NO! They RISE when they feel like NOTHING! This is your crucible! Embrace the heat! Every empty morning conquered is a brick laid on the path to your EMPIRE! Don't wait for motivation, BECOME the motivation! GET UP! PUSH! CONQUER! Ignite your fire now, and claim your destiny!"]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>['Anime style: A young protagonist lying in bed, eyes closed, surrounded by swirling darkness representing emptiness, a single ray of light breaking through a window. Dynamic colors, dramatic lighting, intense focus.', "Anime style: Close-up on the protagonist's face, one eye slowly opening with fierce determination, a faint inner fire reflected in their pupil. Vivid colors, dramatic shadows, highly detailed.", 'Anime style: The protagonist, now standing, silhouetted against a fiery forge, hammer in hand, shaping a glowing sword. Energetic action, dynamic poses, contrasting colors.', 'Anime style: Close-up on the glowing sword being tempered in the forge, sparks flying, intense heat waves distorting the air. Dynamic lighting, high contrast, hyper-realistic details.', 'Anime style: The protagonist standing tall, the completed sword held high against a backdrop of rising flames, a determined expression on their face. Epic composition, powerful pose, vibrant colors.', 'Anime style: A lone figure ascending a steep, rocky mountain path, a single determined expression on their face, shrouded in shadows, with a faint glowing aura. Inspiring landscape, anime-style effects.', 'Anime style: A montage of historical champions (anime style) rising from defeat, their eyes burning with unwavering resolve. Epic composition, vivid colors, and dramatic lighting.', 'Anime style: The protagonist standing inside a crucible of fire, unflinching, their silhouette transforming into a powerful warrior. Intense visual effects, epic scenery, anime-style animation.', 'Anime style: The protagonist placing a brick, symbolizing a day conquered, onto a massive, ever-growing empire under a vibrant sunrise. Dynamic colors, dramatic lighting, and inspiring landscape.', 'Anime style: The protagonist surrounded by a glowing aura of pure motivation, energy radiating outwards, their expression now confident and determined, ready to conquer their destiny. Epic composition, powerful pose, vibrant colors.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-02-11 22:39:48</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Success Secrets: The Mindset of Champions</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Champions aren't born, they're made, sculpted by choices and forged in the fires of adversity!",
+  "Ever wonder why some people consistently rise to the top, while others remain stuck?",
+  "The secret isn't talent; it's a champion's mindset, and today, we're unlocking those success secrets!",
+  "The truth is, most of us are conditioned to play small, to follow a pre-set path of mediocrity.",
+  "Society often tells you to get a good job, work hard, save a little, and retire happy.",
+  "But what if that's a gilded cage, trapping your potential and limiting your freedom?",
+  "Champions understand that real success lies in breaking free from limitations, challenging the status quo, and defining their own rules!",
+  "It's about cultivating unwavering belief in your abilities, even when facing overwhelming odds.",
+  "It's about embracing failure as a learning opportunity, not a defeat, transforming obstacles into stepping stones.",
+  "It's about refusing to let fear dictate your decisions, and instead, taking calculated risks that propel you forward.",
+  "So, how do you adopt a champion's mindset?",
+  "Start by questioning everything, by challenging your own limiting beliefs, and by refusing to accept 'no' for an answer!",
+  "Develop a burning desire, a clear vision of what you want to achieve, and then relentlessly pursue it with passion and unwavering commitment.",
+  "Embrace the power of self-improvement, constantly seeking knowledge, honing your skills, and pushing yourself beyond your comfort zone.",
+  "Build a network of like-minded individuals who support your dreams and challenge you to grow.",
+  "Remember, the path to success isn't easy, it's filled with obstacles and setbacks, but it's worth it!",
+  "The world needs champions, people who dare to dream big, to take action, and to inspire others!",
+  "Start today, take one small step toward your goals, and unleash the champion within you, and subscribe!",
+  "Don't wait for permission, don't wait for the perfect moment, because the best time to start is now!",
+  "Are you ready to unlock your champion mindset and rewrite your story?"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>["Champions aren't born, they're made, sculpted by choices, and forged in the fires of adversity! Ever wonder why some people consistently rise to the top, while others remain stuck? The secret isn't talent; it's a champion's mindset, and today, we're unlocking those success secrets! The truth is, most of us are conditioned to play small, to follow a pre-set path of mediocrity. Society often tells you to get a good job, work hard, save a little, and retire happy. But what if that's a gilded cage, trapping your potential and limiting your freedom?", "Champions understand that real success lies in breaking free from limitations, challenging the status quo, and defining their own rules! It's about cultivating unwavering belief in your abilities, even when facing overwhelming odds. It's about embracing failure as a learning opportunity, not a defeat, transforming obstacles into stepping stones. It's about refusing to let fear dictate your decisions, and instead, taking calculated risks that propel you forward! So, how do you adopt a champion's mindset? Start today, take one small step toward your goals, and unleash the champion within you, and subscribe! Don't wait for permission, don't wait for the perfect moment, because the best time to start is now! Are you ready to unlock your champion mindset and rewrite your story?"]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['Anime style: A lone figure standing silhouetted against a fiery sunset, forging a sword of light from raw willpower, dynamic colors, dramatic lighting.', 'Anime style: A group of diverse characters scaling a towering mountain, each step leaving a trail of sparkling energy, symbolizing overcoming adversity, vibrant, detailed artistic effects.', "Anime style: A close-up of determined eyes radiating intense focus, overlaid with intricate patterns representing the champion's mindset, electrifying colors, high contrast.", 'Anime style: A vast cityscape with towering skyscrapers, some glowing with success while others remain dim, illustrating those who rise versus those who stay stagnant, neon lights, detailed background.', 'Anime style: A character breaking free from chains made of gold, escaping a cage of societal expectations, empowered pose, vibrant energy effects, dramatic shadows.', 'Anime style: A character shattering their own reflection in a mirror, revealing a stronger, more confident version of themselves, dynamic action, surreal environment, vibrant color palette.', 'Anime style: A phoenix rising from the ashes, representing transformation and the ability to learn from failure, dramatic lighting, intense flames, detailed feather texture.', 'Anime style: A character facing a colossal monster representing fear, but standing firm with unwavering resolve, epic battle scene, dynamic poses, dramatic camera angles.', 'Anime style: A network of interconnected characters supporting each other, forming a radiant web of energy, symbolizing the power of collaboration, vibrant colors, detailed character designs.', 'Anime style: A character standing at the edge of a cliff, gazing at a limitless horizon filled with stars, ready to rewrite their destiny, hopeful expression, dramatic sky, vibrant atmosphere.']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/History/Video_generation_history.xlsx
+++ b/History/Video_generation_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,6 +784,68 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-02-12 00:49:44</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1% Mindset</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Are you living the 1% mindset, or just settling for what's given?",
+  "Most people drift through life, accepting limitations as fact, but what if I told you that you could access a different level of potential?",
+  "The 1% mindset isn't about being born into privilege; it's about choosing to think and act differently to achieve extraordinary results!",
+  "The world conditions us to believe in scarcity: limited opportunities, limited resources, limited potential, but the 1% see abundance and endless possibilities, what do you see?",
+  "Society often dictates a path: go to school, get a job, save for retirement, but the 1% question this path and forge their own.",
+  "They understand that the conventional route often leads to a life of quiet desperation, a golden cage with comfortable limitations.",
+  "The 1% mindset isn't about greed or hoarding wealth; it's about maximizing your potential, creating value, and living life on your own terms.",
+  "It's about recognizing that your thoughts shape your reality and that you have the power to change your thoughts.",
+  "Think about it: How many times have you limited yourself with phrases like, 'I can't afford it,' or 'I'm not good enough?'",
+  "These limiting beliefs are chains that hold you back from achieving your full potential.",
+  "The 1% mindset challenges these beliefs, replacing them with a 'how can I?' attitude.",
+  "Instead of seeing obstacles, they see opportunities for growth and innovation.",
+  "This isn't some woo-woo self-help jargon; it's a practical approach to achieving financial freedom, entrepreneurial success, and self-improvement.",
+  "The 1% build multiple income streams, invest wisely, and continuously learn and adapt.",
+  "They understand that financial independence is a key to unlocking true freedom, freeing you from the shackles of a 9-to-5 job.",
+  "But the 1% mindset extends beyond finances, it encompasses your health, relationships, and personal growth.",
+  "It's about striving for excellence in all areas of your life, pushing your boundaries, and never settling for mediocrity.",
+  "The 1% are not afraid to fail; they see failure as a learning opportunity, a stepping stone on the path to success.",
+  "They embrace risk, knowing that the greatest rewards often come from taking calculated chances.",
+  "They understand the power of networking and collaboration, surrounding themselves with like-minded individuals who support and challenge them.",
+  "They invest in themselves, constantly seeking knowledge, skills, and experiences that will elevate them to the next level.",
+  "So, are you ready to adopt the 1% mindset and take control of your life?",
+  "Are you ready to break free from the limitations that society has imposed upon you?",
+  "Here's your challenge: Identify one limiting belief that's holding you back and replace it with a positive affirmation.",
+  "Then, take one small action each day to move closer to your goals, start a side hustle, read a book on finance, reach out to a mentor.",
+  "Remember, the 1% mindset is a journey, not a destination, and it starts with a single decision to think and act differently.",
+  "Don't just dream of success, work for it, and unlock your full potential, are you ready to join the 1% Mindset revolution?"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>["Are you truly living the 1% mindset, or are you simply accepting what's handed to you, settling for mediocrity? It's time to be brutally honest with yourself. The choice is yours, but time is not on your side! Stop drifting, start deciding!", "Most people sleepwalk through life, accepting limitations as immutable facts, never questioning the walls they've built around themselves, but what if you could access a different level, a hidden reserve of power? What if everything you've been told is a lie, a carefully constructed illusion to keep you docile and controlled?", "The 1% mindset isn't about a birthright, not about being born into privilege, it's about a conscious choice, a decision to think and act differently, to shatter the glass ceiling, to achieve results that defy expectations! It's about taking ownership and responsibility. It's about forging your own path!", 'The world conditions us to believe in scarcity, that there are limited opportunities, limited resources, limited potential, but the 1% see abundance everywhere, an endless ocean of possibilities waiting to be seized, waiting to be explored, waiting to be created! What do *you* see, lack or limitless potential?', 'Society dictates a pre-packaged path, go to school, get a job, save for retirement, a comfortable cage designed to keep you compliant, but the 1% question everything, they challenge the status quo, and they forge their own destiny! Are you brave enough to question, to deviate, to create?', "They understand that the conventional route often leads to a life of quiet desperation, a golden cage with comfortable limitations, a gilded prison where dreams slowly wither and die. But not you, you're meant for more! You're destined for greatness!", "The 1% mindset isn't about greed or hoarding wealth, it's about maximizing your potential, creating immense value, and living life on your own damn terms! It's about freedom, independence, and unapologetic ambition! It's about leaving a legacy!", "It's about recognizing that your thoughts shape your reality, that you have the power to rewrite your narrative, to dismantle limiting beliefs, and to construct a future beyond your wildest dreams! The power is within you; unleash it!", "Think about it: How many times have you silently whispered, 'I can't afford it,' or 'I'm not good enough?' These insidious phrases are shackles, forged from fear and self-doubt, holding you hostage in a life of unfulfilled potential. Break those chains!", "These limiting beliefs are not just thoughts; they are chains that bind you, keeping you from achieving your full potential, your true destiny. The 1% mindset challenges these beliefs, replacing them with a relentless, 'how can I?' attitude, a burning desire to find a way, no matter the odds. Embrace the 'how can I?'"]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>['Anime-style character standing atop a skyscraper at sunset, overlooking a vast city, a determined look on their face, wind dramatically blowing through their hair, golden light highlighting their features, a symbol of power and ambition.', 'Anime scene: a person reaching out to grasp a shimmering star amidst a swirling galaxy, vibrant blues and purples, dynamic lighting emphasizing the cosmic scale and limitless potential.', 'Anime-inspired artwork of a character breaking free from chains in a fiery explosion, symbolizing liberation and the raw power of individual will, with sharp, dynamic angles and bold colors.', 'Anime-style illustration showing a path diverging into two, one dark and narrow, the other bright and wide, representing choices, with a determined figure standing at the crossroads, contemplating their destiny, enhanced with dramatic lighting.', 'Anime scene: A character with their back to the viewer, staring out at an endless ocean of shimmering possibilities, the sky filled with vibrant, swirling colors, the scene conveying a sense of wonder and potential.', 'Anime-style artwork of a character shattering a mirror, revealing a more confident and powerful version of themselves, dynamic shards of glass flying in every direction, representing self-discovery and transformation.', 'Anime scene: A figure forging a path through a dense forest, sunlight piercing through the canopy, illuminating their determined face, symbolizing perseverance and the courage to overcome obstacles, with detailed foliage and atmospheric effects.', 'Anime-style illustration depicting a golden cage dissolving into dust, releasing a flock of birds that soar into a vibrant sky, symbolizing freedom and the pursuit of dreams, with soft, ethereal lighting.', 'Anime scene: A character standing on a mountaintop, arms outstretched, embracing the wind, a look of triumph on their face, the background featuring a panoramic view of a vibrant, dynamic world, symbolizing achievement and self-mastery.', 'Anime-style artwork showing a person painting a vibrant mural on a gray wall, transforming a bleak landscape into a colorful masterpiece, symbolizing creativity and the power to shape reality.', 'Anime scene: A lone figure standing against a tidal wave, determination etched on their face, the scene filled with dynamic water effects and bold colors, symbolizing the courage to face overwhelming odds.', 'Anime-style illustration depicting a hand reaching out to pull another from a deep abyss, symbolizing support and the power of community, with contrasting dark and light elements to emphasize the emotional weight.', 'Anime scene: A character standing in a field of sunflowers, bathed in golden light, a serene expression on their face, symbolizing optimism and the beauty of simple pleasures, with intricate details and vibrant colors.', 'Anime-style artwork showing a person dismantling a towering wall, brick by brick, revealing a breathtaking landscape behind it, symbolizing perseverance and the dismantling of self-imposed limitations.', 'Anime scene: A character holding a glowing orb that reflects their deepest desires and aspirations, the surrounding environment transforming to match the vision, symbolizing the power of manifestation and positive thinking.', 'Anime-style illustration depicting a figure standing at the edge of a precipice, looking out at a boundless expanse of stars, symbolizing the courage to dream big and pursue the impossible, with dramatic lighting and cosmic effects.', 'Anime scene: A character running towards a rising sun, their silhouette outlined against the vibrant light, symbolizing hope and the relentless pursuit of a brighter future, with dynamic motion lines and atmospheric effects.', 'Anime-style artwork showing a person transcending their physical form, transforming into a radiant being of light, symbolizing enlightenment and the unlocking of full potential.', 'Anime scene: A lone figure meditating in a tranquil garden, surrounded by blooming flowers and serene waterfalls, finding inner peace and clarity, symbolizing the importance of mindfulness and self-reflection.', 'Anime-style illustration depicting a hand breaking through a sheet of ice, reaching towards a warm, inviting light, symbolizing resilience and the determination to overcome adversity.', 'Anime scene: A character standing confidently in the rain, unafraid and unyielding, a powerful symbol of resilience and unwavering determination, with dynamic rain effects and dramatic lighting.', 'Anime-style artwork showing a person climbing a steep mountain, their face determined, the summit shrouded in mist, symbolizing perseverance and the pursuit of ambitious goals, with detailed textures and atmospheric effects.', 'Anime scene: A character standing amidst a field of fallen leaves, a thoughtful expression on their face, contemplating the changing seasons of life, symbolizing growth and the acceptance of change.', 'Anime-style illustration depicting a hand planting a seed in fertile soil, symbolizing hope and the potential for growth, with soft, ethereal lighting and intricate details.', 'Anime scene: A character soaring through the sky on the back of a majestic dragon, symbolizing freedom and the power of imagination, with dynamic motion lines and vibrant colors.', 'Anime-style artwork showing a person surrounded by books, absorbing knowledge and wisdom, their eyes glowing with understanding, symbolizing the importance of continuous learning and self-improvement.', 'Anime scene: A lone figure standing on a battlefield, victorious despite the odds, their spirit unyielding, symbolizing courage and the triumph over adversity, with dynamic action lines and dramatic lighting.', 'Anime-style illustration depicting a hand holding a compass, guiding the way through a dark forest, symbolizing direction and the importance of having a clear sense of purpose.', 'Anime scene: A character standing at the edge of a waterfall, contemplating the flow of life, finding peace and acceptance, symbolizing the importance of living in the present moment.', 'Anime-style artwork showing a person transforming from a caterpillar into a butterfly, symbolizing metamorphosis and the beauty of personal growth, with soft, ethereal lighting and intricate details.']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/History/Video_generation_history.xlsx
+++ b/History/Video_generation_history.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,6 +846,244 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-14 10:19:35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>What If the aliens arrive in 2025?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ChronoShift_Chronicles</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alright, buckle up! Here’s a 60-second YouTube Short script designed to go viral, based on "What If the aliens arrive in 2025?":
+Imagine… 2025 dawns, but it's not the future we pictured; suddenly, the sky cracks open with shimmering, impossible geometry, and silent, colossal ships begin to descend. What if they aren't here to conquer, but to offer a solution, a desperate cure to our dying planet, a gift cloaked in terrifying first contact, and imagine the sheer panic gripping global markets as the news spreads like wildfire. This is a first contact no one saw coming, news networks scrambling to make sense of static-filled transmissions, while governments, frozen in disbelief, initiate emergency protocols, but what if those protocols are exactly what the aliens are trying to avoid? Picture the confusion, the terror, and the sliver of hope amidst the chaos, the world holding its breath as a single alien craft lands in a deserted field, and the ramp slowly hisses open, revealing… not monsters, but beings radiating an unsettling calm, projecting images of Earth's past glory, begging us to remember what we’ve lost. What if their "cure" requires a sacrifice, a profound shift in human behavior, a complete restructuring of society, and could we, steeped in our divisions, even agree on that price? Imagine the global debates, the protests, the internal conflicts erupting as we decide whether to accept their help, but what if refusing their offer means irreversible ecological collapse, dooming our species to extinction, and this decision falls to a council of world leaders, plagued by their own agendas and mistrust? But then, a lone scientist deciphers a hidden message in the alien transmission, a warning: they are not saviors, but harvesters, drawn to our planet’s unique energy, disguised as a plea for help to exploit us further! And what if all the “cures” and “gifts” are just a means of pacifying us, while they drain our planet's resources, turning Earth into a lifeless husk, and now imagine the desperate race against time, the unlikely alliance between nations, as we unite to fight back, not against invaders, but against manipulators, forcing us to confront the darkest aspects of ourselves to save our world? What if the key to defeating them lies not in military might, but in reclaiming our lost connection to nature, remembering the ancient wisdom that guided our ancestors, using their own deception against them and turning their energy-harvesting technology into a weapon of our own?
+</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>['What if, in 2025, the sky tears open, revealing colossal alien ships? Subscribe to our channel for more mind-bending scenarios!', "They offer a 'cure' for Earth, cloaked in terrifying first contact. Panic grips global markets as news spreads.", 'News networks scramble to decipher static transmissions. Governments freeze, initiating protocols... but what if?', 'What if those protocols are exactly what the aliens are trying to avoid? Confusion, terror, a sliver of hope.', "An alien craft lands. The ramp hisses open, revealing beings radiating calm, projecting Earth's lost glory.", "Their 'cure' demands a sacrifice: a profound shift in humanity. Can we, divided, agree on the price?", 'Refusal means ecological collapse. World leaders, plagued by agendas, face a choice. But then...', "A scientist deciphers a hidden message: they're not saviors, but harvesters, after Earth's energy!", "Their 'cures' are a lie, pacifying us as they drain our planet into a husk. A desperate race begins!", 'Nations unite against manipulators, confronting our darkest selves. The key? Reclaiming our lost connection to nature.']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>['Wide shot: Dark, stormy sky with a massive, geometrically impossible alien ship tearing through it. Ominous mood, deep blues and purples. High-angle, dramatic lighting.', 'Close-up: Shocked faces of people looking up at the sky, mixed expressions of fear and awe. Shallow depth of field, focus on eyes. Cold color palette.', 'Close-up: Stock market tickers crashing, red numbers flashing wildly. Chaotic energy, fast cuts, sense of impending doom. Predominantly red and black.', 'Medium shot: News anchor sweating, struggling to maintain composure, static-filled screen behind her. Unsettling atmosphere, flickering lights, desaturated colors.', 'Extreme wide shot: Military command center, flashing screens, tense faces of generals and politicians. Overwhelming feeling of powerlessness. Dark and sterile environment.', 'Low angle: Alien ship hovering over a deserted field, casting an eerie glow. Silhouettes of soldiers pointing weapons. Heavy atmosphere, thick fog, green and blue hues.', 'Close-up: Alien beings radiating an unsettling calm, projecting holographic images of lush, green Earth landscapes. Dreamy quality, soft focus, pastel colors.', 'Medium shot: Global leaders arguing at a UN table, tense negotiations, divided opinions. Chaotic and dramatic scene. Warm and cool contrasting tones.', 'Wide shot: Parched landscape, cracked earth, dying trees. Desolate and hopeless. Sepia tone, strong shadows.', 'Close-up: Scientist hunched over a computer, frantically typing, lines of code flashing. Intense focus, desperate urgency. Neon green and black color scheme.', 'Medium shot: The scientist looks up, eyes wide with realization, holding a decoded message. Moment of discovery, revelation. Bright light illuminating the face.', 'Close-up: Alien ship draining energy from Earth, beams of light sucking the life out of the planet. Horrific and apocalyptic imagery. Dark reds and oranges.', 'Wide shot: Earth as a lifeless husk in space, a barren and desolate planet. Tragic and hopeless. Grey and brown color palette.', 'Medium shot: Leaders of different nations shaking hands, forming an unlikely alliance. Hopeful and determined. Natural lighting, warm colors.', 'Close-up: Diverse group of people marching in protest, holding signs demanding change. Passionate and rebellious energy. Vivid and diverse colors.', 'Medium shot: Ancient ruins overgrown with vegetation, symbols of forgotten wisdom. Serene and peaceful. Green and earth-tone color scheme.', 'Extreme close-up: Hands touching the earth, feeling the connection to nature. Intimate and spiritual. Soft focus, warm lighting.', 'Close-up: Ancient symbol glowing with power, channeling energy from the Earth. Mystical and enchanting. Golden and green hues.', 'Wide shot: Humans using alien technology to defend Earth, turning their own weapons against them. Hopeful and triumphant. Electric blue and white color scheme.', 'Extreme wide shot: Earth restored to its former glory, vibrant and thriving. A symbol of hope and resilience. Bright and colorful palette.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-14 11:03:02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>You vs You.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "You are your own greatest obstacle, and your own greatest ally!",
+  "Every limitation, every fear, every excuse, it's all you versus you.",
+  "Think about it: the only person holding you back from achieving your dreams, from living the life you truly desire, is you!",
+  "But what if you could break free from the person you think you are, and become the person you're truly capable of being?",
+  "This isn't about blaming yourself; it's about understanding that the battle for your future is 'You vs You,' and it's time to start fighting the right fight!",
+  "How many times have you told yourself 'I can't,' when the truth is you simply haven't tried hard enough?",
+  "How many opportunities have you missed because of the fear of failure, the fear of judgment, the fear of stepping outside your comfort zone?",
+  "The truth is, society, the system, they all play a role, but ultimately, it's your internal battles that determine your destiny.",
+  "Think of your limiting beliefs as chains, not physical ones, but mental chains forged from past experiences, negative self-talk, and societal conditioning.",
+  "These chains tell you that you're not good enough, that you're not smart enough, that you're not worthy of success.",
+  "But who created those chains?",
+  "You did!",
+  "And that means you also hold the key to unlocking them.",
+  "The 'You vs You' battle isn't about external struggles; it's about conquering your inner demons.",
+  "It's about challenging the voice in your head that says 'no,' and replacing it with a voice that screams 'yes!'",
+  "What if you started viewing your fears as opportunities for growth?",
+  "What if you embraced discomfort as a sign that you're expanding your horizons?",
+  "What if you redefined failure as a learning experience, a stepping stone on the path to success?",
+  "This is where the power of 'self-improvement' truly lies: in turning your weaknesses into strengths, your doubts into certainties, and your dreams into realities.",
+  "Many people are stuck in a cycle of self-sabotage, constantly undermining their own potential.",
+  "They dream of 'financial freedom,' yet they're afraid to take the risks necessary to achieve it.",
+  "They yearn for an 'entrepreneur mindset,' but they're paralyzed by the fear of failure.",
+  "They crave to 'escape the matrix,' but they're too comfortable in their routines to break free.",
+  "But you, you're different!",
+  "You're here because you're ready to face yourself, to confront your limitations, and to emerge victorious.",
+  "It's time to stop letting 'you' hold 'you' back.",
+  "It's time to unleash the power within, to tap into your full potential, and to create the life you deserve.",
+  "The world needs your unique talents, your unique perspective, your unique vision.",
+  "Don't let fear silence you.",
+  "Don't let doubt paralyze you.",
+  "Don't let the 'You' that you used to be define the 'You' that you're destined to become.",
+  "So, what's your next move?",
+  "The battle of 'You vs You' starts now!",
+  "Today, I challenge you to identify one limiting belief that's been holding you back.",
+  "Write it down, then write down three reasons why that belief is false.",
+  "Finally, write down one action you can take today to challenge that belief and move one step closer to your goals.",
+  "This is your moment.",
+  "This is your battle.",
+  "This is 'You vs You,' and I know you're going to win!"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>["Listen up, because this is critical: you are both your greatest obstacle, and your most powerful weapon! Every single limitation, every shred of fear, every flimsy excuse you cling to, it's all 'You vs You'! Stop running from the truth; start facing it head-on!", "Think long and hard about this: the only person standing between you and your wildest dreams, the life you were truly meant to live, is staring back at you in the mirror! It's not society, it's not your past, it's you! So, what are you going to do about it?!", "What if you could shatter the chains of your self-imposed limitations and transform into the person you were always meant to be, the hero you're destined to become?! This isn't about wallowing in self-blame, it's about recognizing that the epic battle for your future is a 'You vs You' showdown, and it's time to fight like your life depends on it!", "How many times have you whispered, 'I can't,' when the brutal truth is, you haven't even scratched the surface of your potential?! How many opportunities have slipped through your fingers because you were paralyzed by the fear of failure, the sting of judgment, the discomfort of venturing beyond your safe little bubble?!", "Let's be real; society, the system, they all play their parts, but ultimately, your destiny is forged in the fires of your internal battles! The war within determines the war without! Win the inner game, and you'll conquer the world!", "Visualize your limiting beliefs as shackles, not physical, but mental chains forged from the crucible of past failures, the venom of negative self-talk, and the suffocating weight of societal expectations! These chains scream that you're not good enough, not smart enough, not worthy of success!", "But here's the kicker: who forged those insidious chains?! You did! You, with your doubts, your fears, and your self-sabotaging narratives! But if you built them, you can break them!", "And that means you hold the key to unlocking every single one of them! The 'You vs You' battle isn't some abstract philosophical concept; it's about waging war on your inner demons, confronting them head-on, and emerging victorious!", "It's about silencing the nagging voice in your head that whispers 'no,' and replacing it with a roaring voice that screams 'YES!' It's about turning your fears into fuel, your weaknesses into weapons, and your doubts into unshakeable certainties! Are you ready to rewrite your story?!", "So, I challenge you, starting now, to identify one single limiting belief that has been holding you hostage! Write it down, dissect it, and then write down three undeniable reasons why that belief is a lie! Finally, commit to one concrete action you can take today to obliterate that belief and catapult yourself closer to your goals! This is your moment; this is your battle; this is 'You vs You,' and I know, without a shadow of a doubt, that you are going to win!"]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>["Anime style: A lone warrior standing atop a shattered mountain, facing a shadowy, monstrous version of themselves. Dynamic colors, dramatic lighting, fierce determination in the warrior's eyes.", 'Anime style: A character reaching out, desperately trying to grasp their dream, which is visualized as a shimmering, ethereal object just out of reach. Tears stream down their face, but their eyes hold a spark of resolve. Vivid colors, intense emotion.', 'Anime style: A split-screen showing two versions of the same character: one defeated and slumped, the other radiating power and confidence, ready for battle. Dynamic energy streaks connecting them. Bold, contrasting colors.', 'Anime style: A character shattering a mirror, the fragments reflecting distorted images of their past failures. Behind them, a path leading towards a bright, promising future. Dramatic lighting, symbolic imagery.', 'Anime style: A close-up of a determined eye reflecting a fiery battlefield where the character fights against their inner demons, visualized as monstrous creatures. Intense colors, dynamic action.', 'Anime style: A character tied down by chains made of negative thoughts, struggling to break free. A single ray of light pierces through the darkness, illuminating their face with hope. Dark, contrasting colors.', 'Anime style: A character forging their own destiny in a vibrant, otherworldly forge, with sparks flying and the tools of creation glowing with power. Dynamic composition, inspiring landscape.', 'Anime style: A character holding a key, standing before a massive gate symbolizing their potential. Beyond the gate lies a breathtaking landscape of opportunity. Dramatic lighting, sense of scale.', "Anime style: A character unleashing a powerful energy blast, shattering the word 'NO' into a million pieces. Dynamic action, vibrant colors, sense of liberation.", 'Anime style: A character standing on a mountaintop, overlooking a vast, unexplored world, their eyes filled with determination and courage. Inspiring landscape, dramatic lighting.', 'Anime style: A character facing their fears, visualized as monstrous figures looming in the shadows. The character stands tall, their eyes glowing with inner strength. Dynamic composition, intense colors.', 'Anime style: A character embracing discomfort, visualized as a swirling vortex of energy, and emerging stronger and more resilient. Vivid colors, symbolic imagery.', 'Anime style: A character redefining failure, visualized as stepping stones leading towards a towering castle representing success. Inspiring landscape, dramatic lighting.', 'Anime style: A character turning weaknesses into strengths, visualized as transforming broken weapons into powerful tools. Dynamic action, vibrant colors.', 'Anime style: A character transforming doubts into certainties, visualized as solidifying a crumbling foundation into a sturdy platform. Inspiring landscape, dramatic lighting.', 'Anime style: A character transforming dreams into realities, visualized as building a magnificent city from the ground up. Dynamic composition, vibrant colors.', 'Anime style: A close-up of a determined face writing down a limiting belief, then crossing it out with a powerful stroke. Intense focus, dynamic action.', 'Anime style: A character dissecting a limiting belief, visualized as taking apart a complex machine to understand its flaws. Analytical expression, dramatic lighting.', 'Anime style: A character writing down reasons why a limiting belief is false, visualized as writing a powerful spell to break a curse. Intense focus, dynamic action.', 'Anime style: A character taking action to challenge a limiting belief, visualized as leaping into a new world filled with adventure and opportunity. Exhilarated expression, vibrant colors.', 'Anime style: A character standing on a stage, bathed in light, ready to seize their moment. Confident expression, dynamic lighting.', 'Anime style: A character preparing for battle, their eyes filled with determination and resolve. Fierce expression, dynamic action.', 'Anime style: A character standing victorious over their inner demons, a radiant aura surrounding them. Triumphant expression, inspiring landscape.', 'Anime style: A character reaching the summit of a mountain, symbolizing overcoming a challenge. The view from the top is breathtaking, representing the rewards of perseverance. Dynamic lighting, sense of accomplishment.', 'Anime style: A collage of inspiring images representing different facets of success, all connected by a glowing energy that emanates from the central character. Dynamic composition, vibrant colors.', "Anime style: A close-up of a character's determined eyes, reflecting the burning desire to achieve their goals. Intense emotion, dramatic lighting.", 'Anime style: A character unleashing their full potential, visualized as a burst of energy that transforms them into a more powerful version of themselves. Dynamic action, vibrant colors.', 'Anime style: A character creating the life they deserve, visualized as painting a masterpiece on a blank canvas. Artistic expression, inspiring landscape.', 'Anime style: A character silencing fear, visualized as extinguishing a dark flame with a powerful breath. Intense focus, dynamic action.', 'Anime style: A character overcoming doubt, visualized as climbing a steep cliff with unwavering determination. Inspiring landscape, dramatic lighting.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-15 23:37:57</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FOCUS ON YOURSELF NOT OTHERS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Are you constantly scrolling, comparing your life to everyone else's highlight reel?",
+  "It's time to stop, because focusing on others is stealing your own joy!",
+  "Seriously, ask yourself, 'How much time do I waste worrying about what THEY are doing, instead of building MY dreams?'",
+  "Every minute spent comparing, is a minute lost creating your own success, your own happiness, your own unique path!",
+  "They say comparison is the thief of joy, but it's also the murderer of potential!",
+  "The world's obsessed with likes, followers, and keeping up appearances, but this is their movie, not yours!",
+  "You weren't put on this earth to be a supporting character in someone else's story.",
+  "Your energy is a precious resource, don't drain it on envy and judgment.",
+  "Instead, pour it into yourself; invest in your skills, your health, and your passions.",
+  "Stop checking what others are doing, and start checking in with yourself; what do YOU want?",
+  "What makes YOU happy? What are YOU good at?",
+  "It's time to unfollow the distractions, unsubscribe from the noise, and refocus, only on what you really want.",
+  "Starting now, dedicate one hour, just one hour each day, to yourself and your dreams.",
+  "Forget what everyone else thinks, feels, or does; this hour is for YOU!",
+  "Your story is waiting to be written, your life is waiting to be lived, but it starts when you FOCUS ON YOURSELF, NOT OTHERS! Isn't it time to build your own empire?"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>["Are you constantly scrolling, comparing your life to everyone else's highlight reel? It's time to stop, because focusing on others is stealing your own joy! Seriously, ask yourself, 'How much time do I waste worrying about what THEY are doing, instead of building MY dreams?' Every minute spent comparing, is a minute lost creating your own success, your own happiness, your own unique path! They say comparison is the thief of joy, but it's also the murderer of potential!", "The world's obsessed with likes, followers, and keeping up appearances, but this is their movie, not yours! You weren't put on this earth to be a supporting character in someone else's story. Your energy is a precious resource, don't drain it on envy and judgment. Instead, pour it into yourself; invest in your skills, your health, and your passions. Stop checking what others are doing, and start checking in with yourself; what do YOU want? What makes YOU happy? What are YOU good at? It's time to unfollow the distractions, unsubscribe from the noise, and refocus, only on what you really want. Starting now, dedicate one hour, just one hour each day, to yourself and your dreams. Forget what everyone else thinks, feels, or does; this hour is for YOU! Your story is waiting to be written, your life is waiting to be lived, but it starts when you FOCUS ON YOURSELF, NOT OTHERS! Isn't it time to build your own empire?"]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['Anime style: A young protagonist with striking eyes, bathed in neon light, scrolls endlessly through a chaotic social media feed filled with exaggerated, glamorous images. A dark cloud looms overhead, symbolizing their diminishing joy. Dynamic colors, dramatic lighting.', 'Anime style: The protagonist, now silhouetted against a vibrant sunset, dramatically slams their phone shut. Energy waves emanate from their hand, symbolizing the break from comparison. Inspiring landscape, symbolic imagery.', "Anime style: Extreme close-up on the protagonist's determined eyes, reflecting a shattered mirror. The reflection shows distorted, envious faces fading away. A question mark hovers above their head, morphing into building blocks. Detailed artistic effects, vivid colors.", 'Anime style: The protagonist stands at the foot of a towering mountain representing their potential. Each step they take upward creates glowing, positive energy that transforms the landscape from barren to lush. Inspiring landscape, dynamic action.', 'Anime style: A powerful, ethereal figure representing joy battles a shadowy monster made of social media icons. Explosions of light and color illuminate the scene, symbolizing the fight against comparison. Dramatic lighting, anime action sequence.', 'Anime style: The protagonist stands defiantly on a rooftop overlooking a sprawling, futuristic city obsessed with social media. Their cape billows in the wind, a symbol of their independent spirit. Dramatic lighting, dynamic pose.', 'Anime style: A montage of supporting characters fades into the background as the protagonist steps into the spotlight, bathed in golden light. Their eyes shine with newfound purpose. Symbolic imagery, inspiring background.', 'Anime style: The protagonist channels their energy into a glowing orb, which radiates outwards, healing a barren landscape. The orb transforms into a tree of life, symbolizing their renewed passions. Dynamic colors, ethereal effects.', 'Anime style: The protagonist sits in a serene garden, meditating as their inner self manifests as a powerful, glowing warrior. They are surrounded by blooming flowers, symbolizing their growth. Inspiring landscape, calming colors.', 'Anime style: The protagonist stands atop a newly built empire, overlooking a vibrant world filled with their creations. They raise their fist in triumph, a symbol of their self-built success. Dramatic lighting, inspiring vista.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-17 17:43:17</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025: A New Era for Humanity or an Invasion from Another World?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ChronoShift_Chronicles</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">What if 2025 isn't just another year, but the tipping point? Imagine skies shimmering, not with aurora borealis, but with something… else. News reports whisper of unprecedented technological leaps, quantum computing exceeding all expectations; meanwhile, strange seismic activity spikes across the globe, unsettling scientists. Experts predict a golden age of interconnectedness and AI, promising solutions to humanity's greatest challenges, but a chilling undercurrent persists; what if this rapid advancement masks something far more sinister? Government agencies begin operating in unprecedented secrecy, dismissing conspiracy theories about alien contact as mere speculation, yet the frequency of unidentified aerial phenomena sightings skyrockets. Think back to that shimmering sky - now, reports emerge of inexplicable energy surges emanating from deep within the earth's crust, coinciding perfectly with those seismic events. The official narrative focuses on sustainable energy initiatives, cleverly concealing the truth from the public; as cities prepare for a future of seamless integration with artificial intelligence, individuals report eerie glitches in the system, glimpses of code they can't explain. Remember those seismic activities? They're not just quakes; they're signals, a coordinated message received by something waiting just beyond the veil. As 2025 dawns, the utopian dream begins to crumble, revealing a terrifying reality: it wasn't a new era for humanity we were building, but a welcome mat for an invasion from another world. The shimmering sky wasn't beautiful; it was a fleet, poised to descend. The question isn't if they're coming, but whether humanity is ready to fight back.
+</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>["What if 2025 isn't just another year... but the tipping point? Imagine skies shimmering with something… else. Subscribe for more!", 'News reports whisper of impossible tech, quantum leaps beyond our wildest dreams. But beneath the surface, something stirs.', 'Strange seismic spikes jolt the globe, unsettling even seasoned scientists. An age of AI dawns... but at what cost?', 'Is this rapid advancement masking something sinister? Government agencies retreat into secrecy, fueling the alien contact rumors.', 'Remember that shimmering sky? Now, energy surges erupt from the Earth, precisely mirroring those seismic events. Coincidence?', 'The official narrative speaks of sustainable energy, a convenient smokescreen. But the truth is buried deep, resonating with each quake.', 'Cities prepare for AI integration, a seamless future. But individuals report chilling glitches, inexplicable code fragments.', "Those quakes aren't just quakes. They're signals, a coordinated message received by something waiting just beyond the veil.", 'As 2025 dawns, the utopian dream shatters. The future we built? It’s a welcome mat... for something else entirely.', "The shimmering sky wasn't beautiful. It was a fleet, poised to descend. Are we ready to fight back, or is it too late?"]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>['Extreme wide shot, night sky filled with an unnatural shimmering light, not aurora borealis but something alien and technological, dark blue and purple color scheme, mysterious and ominous, digital painting.', 'Close-up, shocked face of a young woman looking up at the sky, fear and wonder in her eyes, dimly lit street, rainy atmosphere, hyperrealistic.', 'News studio, holographic screens displaying complex quantum computing models, reporters looking concerned, dark and futuristic, sleek design.', 'Global map highlighting seismic activity hotspots, pulsing red indicators, dark background, satellite view, alarming and urgent, data visualization.', 'Close-up, scientist looking worriedly at a seismograph reading, sweat on their brow, dimly lit lab, tense atmosphere, dramatic lighting.', 'Montage of AI robots performing tasks seamlessly in a futuristic city, bright and utopian, but with subtle glitches and errors, oversaturated colors, surreal.', 'Men in black suits walking purposefully down a corridor, blurred background, sense of urgency and secrecy, cold and sterile environment, monochromatic.', 'Satellite image of Earth, multiple unidentified aerial phenomena (UAPs) streaking across the sky, glowing trails, ominous and mysterious, dark space, dramatic.', "Close-up, a glowing energy beam shooting up from the Earth's crust, distorted landscape around it, vibrant green and blue colors, powerful and unsettling.", 'Abstract digital representation of energy flowing through the Earth, interconnected network of light, pulsing rhythm, technological and organic, glowing and ethereal.', 'Futuristic city skyline, sleek buildings with integrated AI interfaces, holographic advertisements, but with subtle cracks and glitches, neon colors, cyberpunk style.', 'Close-up, glitching holographic display showing distorted code, unintelligible symbols, dark background, unsettling and ominous, digital noise.', 'Animated depiction of seismic waves spreading outwards from an epicenter, stylized visuals, dark background, pulsating colors, rhythmic and unsettling.', 'Abstract representation of an alien signal, geometric patterns and pulsating light, otherworldly and incomprehensible, vibrant colors, cosmic and unsettling.', 'Time-lapse of a utopian city crumbling and decaying, buildings collapsing, vibrant colors fading, sense of despair and loss, post-apocalyptic scene.', 'Extreme wide shot, massive alien fleet descending from the shimmering sky, city in ruins below, explosions and chaos, dark and fiery colors, apocalyptic.', 'Close-up, terrified face of a person looking up at the invading fleet, hopeless expression, dimly lit street, cinematic lighting, emotionally charged.', 'Soldiers preparing for battle, armed with futuristic weapons, determined expressions, war-torn environment, gritty and realistic, dark and intense.', "Abstract representation of humanity's struggle against an unknown force, chaotic and energetic, vibrant colors clashing, surreal and symbolic, powerful and emotional.", 'Final shot, close-up of the Earth from space, a faint blue glow amidst the darkness, uncertain future, hopeful yet vulnerable, cinematic and poignant.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-17 18:12:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Become Unstoppable with These Daily Habits</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>```json
+[
+  "Are you tired of feeling stuck, like you're just going through the motions?",
+  "What if I told you that you could become unstoppable, that you could achieve anything you set your mind to?",
+  "It all starts with your daily habits, the small things you do consistently that shape your life.",
+  "But here's the truth: conventional thinking is your enemy, it's a trap designed to keep you mediocre!",
+  "Forget hitting snooze; unstoppable people rise early, seizing the day before the world even wakes up.",
+  "Instead of mindlessly scrolling social media, they invest in themselves, learning new skills, and expanding their knowledge, fueling their unstoppable mindset!",
+  "Trade passive entertainment for active creation, whether it's writing, coding, or building a side hustle, unstoppable people are always building, always growing!",
+  "Prioritize physical and mental health, because a sharp mind and a strong body are the ultimate power couple, working in harmony to crush any obstacle.",
+  "Challenge your comfort zone daily, because growth happens when you dare to step outside the familiar and embrace the unknown, that is where true unstoppable power is born.",
+  "Practice gratitude; it shifts your focus from what you lack to what you have, fostering resilience and attracting abundance to those around you.",
+  "Network strategically, because unstoppable people understand that collaboration trumps competition, surround yourself with a team that pushes you higher.",
+  "Are you ready to embrace these daily habits and unlock your unstoppable potential, or will you settle for a life of mediocrity, it's your choice?"
+]
+```</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>["Are you tired of feeling stuck, like you're just going through the motions? What if I told you that you could become unstoppable, that you could achieve anything you set your mind to? It all starts with your daily habits, the small things you do consistently that shape your life. But here's the truth: conventional thinking is your enemy; it's a trap, designed to keep you mediocre!", "Forget hitting snooze; unstoppable people rise early, seizing the day before the world even wakes up. Instead of mindlessly scrolling social media, they invest in themselves, learning new skills, and expanding their knowledge, fueling their unstoppable mindset! Trade passive entertainment for active creation, whether it's writing, coding, or building a side hustle, unstoppable people are always building, always growing!"]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>["Anime style: A lone figure silhouetted against a vast, stormy ocean, symbolic of feeling trapped, waves crashing dramatically around them. Dynamic colors, emphasizing the figure's isolation. Dramatic lighting highlighting their despair.", 'Anime style: A vibrant, energetic hero, eyes blazing with determination, reaching for a radiant star in a swirling galaxy, visualizing unstoppable potential. Dynamic colors and dramatic lighting evoking power and hope.', 'Anime style: Close-up on hands meticulously crafting intricate clockwork gears, each gear representing a daily habit. Steampunk and anime fusion. Warm, inviting colors, emphasizing the impact of small actions.', 'Anime style: A shadowy cage representing conventional thinking, its bars twisting and distorting reality. A single figure struggles within, reaching for a blinding light shining through a crack in the cage. Dark, oppressive colors contrasting with the bright light of freedom.', 'Anime style: The silhouette of a hero shattering a mirror that reflects a mundane, gray world. The shards explode outwards, revealing a vibrant, colorful cityscape underneath. Dynamic colors symbolizing liberation and potential.', 'Anime style: Anime character leaping out of bed as the sun bursts over the horizon, rays of light highlighting their determined face. Birds soaring upwards in the background. Vibrant orange, yellow, and gold hues.', 'Anime style: A montage of glowing screens showcasing coding, writing, and engineering projects, superimposed over a serene meditation scene. Anime character is practicing mindfulness, they are surrounded by sakura blossoms, indicating the investment in both mental and professional growth.', "Anime style: Anime hero crafting an intricate robot companion, parts scattered around a futuristic workshop. The robot's eyes glow with intelligence and purpose. Energetic, dynamic colors, showcasing active creation.", 'Anime style: Split screen: on one side, a vibrant training montage with characters pushing their physical and mental limits; on the other, a defeated villain cowering in fear. Dynamic angles and vibrant colors on the side representing mental and physical health.', 'Anime style: A lone figure standing atop a towering mountain, silhouetted against a swirling nebula, embracing the unknown. Dramatic, otherworldly colors symbolizing the power found outside the comfort zone.']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
